--- a/Paper/Google_spreadsheet_Tahi_RE.xlsx
+++ b/Paper/Google_spreadsheet_Tahi_RE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t xml:space="preserve">Level of confidence
 </t>
@@ -70,42 +70,9 @@
     <t>(does it solve the problem better than state of the art technology?)</t>
   </si>
   <si>
-    <t>A Clustering Technique for Early Detection of Dominant and
-Recessive Cross-Cutting Concerns</t>
-  </si>
-  <si>
-    <t>Detection of cross-cutting concerns</t>
-  </si>
-  <si>
     <t>Clustering</t>
   </si>
   <si>
-    <t>Terms (words) used inside requirements (discuss with Hao)</t>
-  </si>
-  <si>
-    <t>A simple variant of the hierarchical clustering scheme</t>
-  </si>
-  <si>
-    <t>The experiments described in this paper were
-supported through two tool sets developed at the Center
-for Requirements Engineering at DePaul University. The
-first tool, Poirot, is a web-based tool designed to generate
-traces between various software engineering artifacts. It
-was used in this study to compute similarity scores
-between requirements [13]. Although initial clustering
-experiments were conducted in Matlab, we also developed
-a prototype tool, capable of reading in a structured
-requirements specification and similarity scores generated
-by Poirot, and then clustering requirements and
-computing the three metrics.</t>
-  </si>
-  <si>
-    <t>Although the current metrics are
-not able to create a crisp categorization of cross-cutting
-concerns, many of the cross-cutting concerns did return
-high PD values and were ranked relatively high in the list.</t>
-  </si>
-  <si>
     <t>Automatically Classifyung Requirements from the App stores: A Preliminary Study</t>
   </si>
   <si>
@@ -133,34 +100,9 @@
     <t>Relevant Reference[4].</t>
   </si>
   <si>
-    <t>Automatic Classification of Requirements Based on Convolutional Neural Networks</t>
-  </si>
-  <si>
     <t>Supervised Classification</t>
   </si>
   <si>
-    <t>Input:Text (only natural language sentences but discard content like figures, tables, logical and math expressions) Output: labled as requirement or information</t>
-  </si>
-  <si>
-    <t>Convolutional Neural Networks</t>
-  </si>
-  <si>
-    <t>To convert natural language into vector representation word2vec method is used but the tool is not mentioned. for building the network Tensorflow library used and network was trained using stochastic gradient descent.</t>
-  </si>
-  <si>
-    <t>a set of 10000 content elements extracted from 89 requirements specifications (DOORS database) of an industry partner used for training the network. 90% of the content elements for training data and 10% as test data.</t>
-  </si>
-  <si>
-    <t>After training the neural network, the approach is capable
-of classifying new requirements documents with an accuracy
-that is comparable to the accuracy of CNNs applied to other
-tasks (81%)</t>
-  </si>
-  <si>
-    <t>Relevant Reference (25)[A Machine Learning Approach to
-Software Requirements Prioritization]</t>
-  </si>
-  <si>
     <t>Automatic Classifying Functional and Nonfunctional Requirements Using Supervised Machine Learning</t>
   </si>
   <si>
@@ -200,38 +142,7 @@
     <t>Tweets</t>
   </si>
   <si>
-    <t>ACon: A Learning-Based Approach to Deal with Uncertainty in Contextual Requirements at Runtime</t>
-  </si>
-  <si>
-    <t>To execute requirements that depend on context correctly, the system needs up-to-date knowledge about
-the context relevant to such requirements. Techniques to cope with uncertainty in contextual requirements are currently
-underrepresented. In this paper we present ACon (Adaptation of Contextual requirements), a data-mining
-approach to deal with runtime uncertainty a↵ecting contextual requirements</t>
-  </si>
-  <si>
-    <t>Supervised Classification and Unsupervised Clustering</t>
-  </si>
-  <si>
-    <t>Input: a set of contexts given by requirement, sensors monitoring a rowing boat and its crew, insights from the crew, questionnaires done after the rowing period.
-Output: operationalization of the contextual requirements by classifying which in which kind of context the crew is in such that adequate help can be provided.</t>
-  </si>
-  <si>
-    <t>Because ToTEM is implemented on a mobile smartphone we chose JRip, a rule-based classifier that uses relatively few system resources. JRip produces a series of rules that represent the sensors and associated threshold values characterizing context conditions for a particular contextual requirement. For the application of JRip, we used WEKA, the Waikato Machine Learning suite of algorithm implementations in Java. We also experimented with SMO (a Support Vector Machines implementation), Logistic Regression, and Neural Nets. All of them performed worse than JRip in terms of accuracy, precision, and recall, not to mention their time complexity which is much higher than that of JRip, making them quite unsuitable for low-power devices</t>
-  </si>
-  <si>
     <t>Weka</t>
-  </si>
-  <si>
-    <t>For any day of the trip, we used the accumulated data to up to that day in a 10-fold cross validation to check the data mining algorithms performance on the data collected up to that point. During the 10-fold cross validation the collected data is randomly partitioned into 10 data sets of equal size. The data mining classifier is trained on 9 data sets (the training data set) and tested on the data set that is left (validation data set). This procedure is repeated 10 times, making sure that each of the 10 data sets is used only once as the validation data set. The mean is determined out of the 10 result</t>
-  </si>
-  <si>
-    <t>There is no state of the art technology. The approach performed very well for 4 contextual requirements (90% precision or above) and poorly for one where the sensor data does not correlate well with the decision.</t>
-  </si>
-  <si>
-    <t>Sonsor data, logs and user input stored for a number of days (the authors mention 18 days are needed to train the learner)</t>
-  </si>
-  <si>
-    <t>Interesting approach, the contextual requirements are known and the learner is used to decide on which type of context the boat and crew currently are. When sensors fail, the learner learns again how to distinguish the context by making use of available data.</t>
   </si>
   <si>
     <t>Using Clustering to Improve the Structure of Natural Language Requirements Documents</t>
@@ -254,100 +165,10 @@
     <t>By executing the algorithm with different similarity functions and different combinations of values for the parameters, different hidden struc- tures are generated. We call these structures hidden structure candidates. These structures represent possible partitioning of the document perceived by a reader who reads the document without having the original structure information. In- tuitively, the variation of the parameters allows the identification of possible variants in the interpretation of the document structure.</t>
   </si>
   <si>
-    <t>Measuring Requirement Quality to Predict Testability</t>
-  </si>
-  <si>
-    <t>To predict the testability of requirements based on a set of textual features to aid functional testing.</t>
-  </si>
-  <si>
-    <t>Input: A natural language processing technique Semantic Role Labeling (SRL) is used to detect the predicates in natural language requirements, then the SRL tool Senna used to process natural language requirements and calculate the number of the identified predicates. All measures were collected into spreadsheets for analysis and were used to build arff files for Weka. Output:Labled requirement in one of the "testable" "non-testable" classifications</t>
-  </si>
-  <si>
-    <t>C4.5 Decision Tree algorithm</t>
-  </si>
-  <si>
-    <t>The correlation analysis and LR(logistic regression) analysis were performed by using Microsoft Excel and its XLSTAT plugin. The supervised learning analysis was performed on Weka.</t>
-  </si>
-  <si>
-    <t>They found anecdotal evidence that a model trained on one or more datasets can be used to evaluate requirements testability from a different, non-trained dataset.</t>
-  </si>
-  <si>
-    <t>A student project called CardPlay-D. This project is an Android application used for playing cards; it consists of 43 requirements and 39 code modules. CardPlay-D had 22 testable requirements and 21 non-testable requirements, a much different distribution than Browser and iTrust.</t>
-  </si>
-  <si>
-    <t>Logical Structure Extraction from Software Requirements Documents</t>
-  </si>
-  <si>
-    <t>To learn templates for requirements documents from examples of requirements documents (only infrastructure was built, the learning algorithm is just hinted at)</t>
-  </si>
-  <si>
-    <t>Clustering (not sure)</t>
-  </si>
-  <si>
-    <t>Input: requirements documents
-Output: template for a general structure</t>
-  </si>
-  <si>
-    <t>Not given, only planned</t>
-  </si>
-  <si>
-    <t>none yet</t>
-  </si>
-  <si>
-    <t>Requirements documents</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>This is just planned work, the authors build the basic infrastructure to allow learning</t>
-  </si>
-  <si>
-    <t>Trace-by-Classification: A Machine Learning Approach to Generate Trace Links for Frequently Occurring Software Artifacts</t>
-  </si>
-  <si>
-    <t>A technique that uses machine learning to trace software artifacts that recur is similar forms across across multiple projects.</t>
-  </si>
-  <si>
     <t>Classification</t>
-  </si>
-  <si>
-    <t>Input: untraced target artifacts
-Output: classify target documents into specific types</t>
-  </si>
-  <si>
-    <t>decision trees and feature subset selection procedure in Jalaili et al.</t>
-  </si>
-  <si>
-    <t>The combined approach with decision trees and feature subset selection procedure in Jalaili et al. produced the best recall and precision values among the standard machine learning tools used in the paper.</t>
-  </si>
-  <si>
-    <t>The first dataset represented 1449 requirements written by Masters Students in a Requirements Engineering Courses at DePaul university. The second dataset includes a total of 10 HIPAA technical safeguards, traced to a total of 1891 requirements across ten different health-care projects.</t>
-  </si>
-  <si>
-    <t>Application of Reinforcement Learning to Requirements Engineering: Requirements Tracing</t>
-  </si>
-  <si>
-    <t>Finding traceability candidates from high-level to low-level requirements</t>
-  </si>
-  <si>
-    <t>Reinforcement learning</t>
-  </si>
-  <si>
-    <t>Input: high and low level requirements documents
-Output: candidate traces</t>
-  </si>
-  <si>
-    <t>Requirements documents and true trace links</t>
-  </si>
-  <si>
-    <t>RL method outperforms the TF-IDF method for the same recall values. RL’s higher precision at the same recall rate provides a human analyst with a more compact and focused collection of candidate links.</t>
-  </si>
-  <si>
-    <t>The first consists of 49 textual requirements and 51 textual use cases. The dataset is a text-based email system, Pine, developed by the University of Washington [10]. The Pine dataset contains 246 true links. These links form the answer set, i.e., a collection of links against which we can validate our findings. The second project consists of 22 requirements documents and 53 design documents in the NASA scientific instrument project CM1SUB [11]. The project has 45 true links in the answer set.</t>
-  </si>
-  <si>
-    <t>Interesting solution, RL is not often used.</t>
   </si>
   <si>
     <t>Probing for Requirements Knowledge 
@@ -462,11 +283,29 @@
     <t>Relevant Reference[4]. RE data chalange with task for identification of Req specially security related req.</t>
   </si>
   <si>
-    <t>Two real world data sets: Browser (Browser is a web browser written in Java by the École Polytechnique de Montréal. It consists of 24 requirements and 52 code modules(studied 10 of the 24)) and iTrust (Medical application that maintains patient medical history and records and permits communication with Doctors. It consists of 59 use cases and 11 code modules.It is written in Java.) https://152.46.18.254/doku.php?id=requirements</t>
-  </si>
-  <si>
     <t>Holistic requirement model(HRM) is designed to support analysis by enabling an engineer to gain deeper understanding of existing system requirements, improve an existing set of system requirements, or simultaneously mine functional requirements and quality
 concerns from a domain repository. For the result evaluation vector space model(VSM) used but it showed not good results as compare to the proposed model HRM</t>
+  </si>
+  <si>
+    <t>Automatic Classification of Non-Functional Requirements from Augmented App User Reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the NFRs from massive user reviews during software maintenance and evolution. And Automatic user reviews classification in FR and NFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6696 raw user reviews from iBooks and 4400 raw user reviews from
+WhatsApp as the dataset. </t>
+  </si>
+  <si>
+    <t>use three machine learning
+algorithms, Naïve Bayes, J48, and Bagging separately to train
+classifiers</t>
+  </si>
+  <si>
+    <t>augmented user reviews can lead to better classification results, and the machine learning algorithm Bagging is more suitable for NFRs classification from user reviews than Naïve Bayes and J48.</t>
+  </si>
+  <si>
+    <t>In this paper  four classification techniques used BoW, TF-IDF, CHI2, and AUR-BoW (proposed in this work) with three machine learning algorithms Naive Bayes, J48, and Bagging to classify user reviews.the sentences are augmented by several most similar words to the user reviews in the training set This finding indicates that for user review sentences, it is effective to improve user reviews classification results by adding textual semantics to the sentencesREF:30.28.18.39.39.8</t>
   </si>
 </sst>
 </file>
@@ -482,12 +321,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -502,14 +347,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -811,38 +657,38 @@
     <col min="11" max="11" width="36.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -865,110 +711,106 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="174.9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="102" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="J6" t="s">
         <v>45</v>
@@ -977,382 +819,208 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="145.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="58.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="102" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:11" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
         <v>63</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="K10" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="58.3" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:11" ht="174.9" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="72.900000000000006" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="174.9" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="58.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="174.9" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J19" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Paper/Google_spreadsheet_Tahi_RE.xlsx
+++ b/Paper/Google_spreadsheet_Tahi_RE.xlsx
@@ -2,12 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Documents\GitHub\Paper-read\Paper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="8093" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +25,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
+  <si>
+    <t>Document Title</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>PDF Link</t>
+  </si>
+  <si>
+    <t>Name of the researcher who is interested in the paper</t>
+  </si>
+  <si>
+    <t>Comments after revision of first decision</t>
+  </si>
+  <si>
+    <t>E. Guzman; M. Ibrahim; M. Glinz</t>
+  </si>
+  <si>
+    <t>Twitter is one of the most popular social networks. Previous research found that users employ Twitter to communicate about software applications via short messages, commonly referred to as tweets, and that these tweets can be useful for requirements engineering and software evolution. However, due to their large number---in the range of thousands per day for popular applications---a manual analysis is unfeasible.In this work we present ALERTme, an approach to automatically classify, group and rank tweets about software applications. We apply machine learning techniques for automatically classifying tweets requesting improvements, topic modeling for grouping semantically related tweets and a weighted function for ranking tweets according to specific attributes, such as content category, sentiment and number of retweets. We ran our approach on 68,108 collected tweets from three software applications and compared its results against software practitioners' judgement. Our results show that ALERTme is an effective approach for filtering, summarizing and ranking tweets about software applications. ALERTme enables the exploitation of Twitter as a feedback channel for information relevant to software evolution, including end-user requirements.</t>
+  </si>
+  <si>
+    <t>10.1109/RE.2017.88</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8048886</t>
+  </si>
+  <si>
+    <t>Tahira</t>
+  </si>
+  <si>
+    <t>Automatic Classification of Non-Functional Requirements from Augmented App User Reviews</t>
+  </si>
+  <si>
+    <t>Mengmeng  Lu and Peng  Liang</t>
+  </si>
+  <si>
+    <t>10.1145/3084226.3084241</t>
+  </si>
+  <si>
+    <t>R. Deocadez; R. Harrison; D. Rodriguez</t>
+  </si>
+  <si>
+    <t>In this paper we apply self-labeling algorithms as Semi-Supervised Classification (SSC) techniques in order to automate the classification of functional and non-functional requirements contained in reviews in the App Store. In this domain, where it is easy collect a large number of reviews but difficult to manually annotate then, we found that SSC techniques can successfully perform this task and that only a small amount of data is needed to achieve results similar to classical supervised techniques. We also found that the models learned can properly assign labels to the collected data and can classify unseen future reviews. We believe SSC techniques can be of particular use during requirements classification.</t>
+  </si>
+  <si>
+    <t>10.1109/REW.2017.58</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8054879</t>
+  </si>
+  <si>
+    <t>Mining Associations Between Quality Concerns and Functional Requirements</t>
+  </si>
+  <si>
+    <t>X. Lian; J. Cleland-Huang; L. Zhang</t>
+  </si>
+  <si>
+    <t>The cost and effort of developing software systems in a new technical area can be extensive. An organization must perform a domain analysis to discover competing products, analyze their architectures and features, and ultimately discover and specify product requirements. However, delivering high quality products, depends not only on gaining an understanding of functional requirements, but also of qualities such as performance, reliability, security, and usability. Discovering such concerns early in the requirements process drives architectural design decisions. This paper extends our prior work on mining functional requirements from large collections of domain documents, by proposing and evaluating a new technique for discovering and specifying quality concerns related to specific functional components. We evaluate our approach against three domains of Positive Train Control, Electronic Health Records, and Medical Infusion Pumps, and show that it significantly outperforms a basic information retrieval approach. Finally we classified the forms of retrieved information, discussed the utility of different types, and conducted a small study with an experienced engineer to investigate the quality of requirements produced using our approach.</t>
+  </si>
+  <si>
+    <t>10.1109/RE.2017.68</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8049135</t>
+  </si>
+  <si>
+    <t>** read for proposal</t>
+  </si>
+  <si>
+    <t>What Works Better? A Study of Classifying Requirements</t>
+  </si>
+  <si>
+    <t>Z. S. H. Abad; O. Karras; P. Ghazi; M. Glinz; G. Ruhe; K. Schneider</t>
+  </si>
+  <si>
+    <t>Classifying requirements into functional requirements (FR) and non-functional ones (NFR) is an important task in requirements engineering. However, automated classification of requirements written in natural language is not straightforward, due to the variability of natural language and the absence of a controlled vocabulary. This paper investigates how automated classification of requirements into FR and NFR can be improved and how well several machine learning approaches work in this context. We contribute an approach for preprocessing requirements that standardizes and normalizes requirements before applying classification algorithms. Further, we report on how well several existing machine learning methods perform for automated classification of NFRs into sub-categories such as usability, availability, or performance. Our study is performed on 625 requirements provided by the OpenScience tera-PROMISE repository. We found that our preprocessing improved the performance of an existing classification method. We further found significant differences in the performance of approaches such as Latent Dirichlet Allocation, Biterm Topic Modeling, or NaiÌˆve Bayes for the sub-classification of NFRs.</t>
+  </si>
+  <si>
+    <t>10.1109/RE.2017.36</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8049172</t>
+  </si>
+  <si>
+    <t>Z. KurtanoviÄ‡; W. Maalej</t>
+  </si>
+  <si>
+    <t>In this paper, we take up the second RE17 data challenge: the identification of requirements types using the "Quality attributes (NFR)" dataset provided. We studied how accurately we can automatically classify requirements as functional (FR) and non-functional (NFR) in the dataset with supervised machine learning. Furthermore, we assessed how accurately we can identify various types of NFRs, in particular usability, security, operational, and performance requirements. We developed and evaluated a supervised machine learning approach employing meta-data, lexical, and syntactical features. We employed under-and over-sampling strategies to handle the imbalanced classes in the dataset and cross-validated the classifiers using precision, recall, and F1 metrics in a series of experiments based on the Support Vector Machine classifier algorithm. We achieve a precision and recall up to ~92% for automatically identifying FRs and NFRs. For the identification of specific NFRs, we achieve the highest precision and recall for security and performance NFRs with ~92% precision and ~90% recall. We discuss the most discriminating features of FRs and NFRs as well as the sampling strategies used with an additional dataset and their impact on the classification accuracy.</t>
+  </si>
+  <si>
+    <t>10.1109/RE.2017.82</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8049171</t>
+  </si>
+  <si>
+    <t>RE Data Challenge: Requirements Identification with Word2Vec and TensorFlow</t>
+  </si>
+  <si>
+    <t>A. Dekhtyar; V. Fong</t>
+  </si>
+  <si>
+    <t>Since their introduction over a year ago, Google's TensorFlow package for learning with multilayer neural networks and their Word2Vec representation of words have both gained a high degree of notoriety. This paper considers the application of TensorFlow-guided learning and Word2Vec-based representations to the problems of classification in requirements documents. In this paper, we compare three categories of machine learning techniques for requirements identification for the SecReq and NFR datasets. The first category is the baseline method used in prior work: NaiÌˆve Bayes over word count and TF-IDF representations of requirements. The remaining two categories of techniques are the training of TensorFlow's convolutional neural networks on random and pre-trained Word2Vec embeddings of the words found in the requirements. This paper reports on the experiments we conducted and the accuracy results we achieved.</t>
+  </si>
+  <si>
+    <t>10.1109/RE.2017.26</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=8049170</t>
+  </si>
+  <si>
+    <t>M. Robeer; G. Lucassen; J. M. E. M. v. d. Werf; F. Dalpiaz; S. Brinkkemper</t>
+  </si>
+  <si>
+    <t>Natural language (NL) is still the predominant notation that practitioners use to represent software requirements. Albeit easy to read, NL does not readily highlight key concepts and relationships such as dependencies and conflicts. This contrasts with the inherent capability of graphical conceptual models to visualize a given domain in a holistic fashion. In this paper, we propose to automatically derive conceptual models from a concise and widely adopted NL notation for requirements: user stories. Due to their simplicity, we hypothesize that our approach can improve on the low accuracy of previous works. We present an algorithm that combines state-of-the-art heuristics and that is implemented in our Visual Narrator tool. We evaluate our work on two case studies wherein we obtained promising precision and recall results (between 80% and 92%). The creators of the user stories perceived the generated models as a useful artifact to communicate and discuss the requirements, especially for team members who are not yet familiar with the project.</t>
+  </si>
+  <si>
+    <t>10.1109/RE.2016.40</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7765525</t>
+  </si>
+  <si>
+    <t>Natural langugae processing</t>
+  </si>
+  <si>
+    <t>P. R. Anish; B. Balasubramaniam; A. Sainani; J. Cleland-Huang; M. Daneva; R. J. Wieringa; S. Ghaisas</t>
+  </si>
+  <si>
+    <t>Software requirements specifications (SRSs) often lack the detail needed to make informed architectural decisions. Architects therefore either make assumptions, which can lead to incorrect decisions, or conduct additional stakeholder interviews, resulting in potential project delays. We previously observed that software architects ask Probing Questions (PQs) to gather information crucial to architectural decision-making. Our goal is to equip Business Analysts with appropriate PQs so that they can ask these questions themselves. We report a new study with over 40 experienced architects to identify reusable PQs for five areas of functionality and organize them into structured flows. These PQflows can be used by Business Analysts to elicit and specify architecturally relevant information. Additionally, we leverage machine learning techniques to determine when a PQ-flow is appropriate for use in a project, and to annotate individual PQs with relevant information extracted from the existing SRS. We trained and evaluated our approach on over 8,000 individual requirements from 114 requirements specifications and also conducted a pilot study to validate its usefulness.</t>
+  </si>
+  <si>
+    <t>10.1145/2884781.2884801</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7886961</t>
+  </si>
+  <si>
+    <t>Visualizing User Story Requirements at Multiple Granularity Levels via Semantic Relatedness</t>
+  </si>
+  <si>
+    <t>Garm LucassenFabiano DalpiazJan Martijn E. M. van der WerfSjaak Brinkkemper</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-319-46397-1_35</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/chapter/10.1007/978-3-319-46397-1_35</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
   <si>
     <t xml:space="preserve">Level of confidence
 </t>
@@ -70,85 +238,82 @@
     <t>(does it solve the problem better than state of the art technology?)</t>
   </si>
   <si>
+    <t>Automatically Classifyung Requirements from the App stores: A Preliminary Study</t>
+  </si>
+  <si>
+    <t>Detection of FR and NFR from the user reviews texts. Annotation of user reviews using Semi-Supervised Classification (SSC) technique.</t>
+  </si>
+  <si>
+    <t>Semi Supervised Classification</t>
+  </si>
+  <si>
+    <t>Input :Text from the user reviews after applying StringtoWordVector Algorithm and some additional trimming</t>
+  </si>
+  <si>
+    <t>Naive Bayes</t>
+  </si>
+  <si>
+    <t>In the experiments Weka used for the text mining processing. In Weka Reviews were given as an input and StringToWordVector used for the transformation. Also additionla triiming was done by rremoving the numbers, symbols and two letters words. KEEL toolkit for the ML algorithms and cross validation used.</t>
+  </si>
+  <si>
+    <t>Online reviews of the 40 top paid and freeapps on appstores from top 10 different categories</t>
+  </si>
+  <si>
+    <t>No comparison of result is provided.</t>
+  </si>
+  <si>
+    <t>Relevant Reference[4].</t>
+  </si>
+  <si>
+    <t>Automatic Classifying Functional and Nonfunctional Requirements Using Supervised Machine Learning</t>
+  </si>
+  <si>
+    <t>Detection of FR and NFR also identification of types of NFRs *operational, performance, security and usability.</t>
+  </si>
+  <si>
+    <t>Supervised Classification</t>
+  </si>
+  <si>
+    <t>Input:NFR dataset i.e. 12 classes and 625 requirments</t>
+  </si>
+  <si>
+    <t>Support Vector Machine</t>
+  </si>
+  <si>
+    <t>Natural Langugae Toolkit NLTK and Standford Parser for Pre-Processing the data. For Machine learning SciKit used for builidng the classifier.</t>
+  </si>
+  <si>
+    <t>UserComments + NFR dataset</t>
+  </si>
+  <si>
+    <t>For solving the undersampling poblem of the data, they have used User Comment data set .This dataset contains performance and usability requirements and derived from the Amazon software reviews. Relevant Refernece [20]</t>
+  </si>
+  <si>
+    <t>A Little Bird Told ME: Mining Tweets for REquirements and Softwre Evolution</t>
+  </si>
+  <si>
+    <t>Detection of the Requirments from the tweets</t>
+  </si>
+  <si>
+    <t>Input : 68108 tweets i.e. collection of two month tweets of Spotify, dropbox and Slack softwares.Output : the datset was binary classified i.e. improvment request or other. Further improvment request were considered for the grouping and ranking processing.</t>
+  </si>
+  <si>
+    <t>Multi Naive Bayes</t>
+  </si>
+  <si>
+    <t>Training dataset was converted into vector space modle using TF-IDF. Weka software with 10-cross fold used for MNB implementation.</t>
+  </si>
+  <si>
+    <t>Tweets</t>
+  </si>
+  <si>
+    <t>Using Clustering to Improve the Structure of Natural Language Requirements Documents</t>
+  </si>
+  <si>
+    <t>Automatically identifying the parts of the document that lack requirements relatedness and sections independence may help improve the document structure.</t>
+  </si>
+  <si>
     <t>Clustering</t>
-  </si>
-  <si>
-    <t>Automatically Classifyung Requirements from the App stores: A Preliminary Study</t>
-  </si>
-  <si>
-    <t>Detection of FR and NFR from the user reviews texts. Annotation of user reviews using Semi-Supervised Classification (SSC) technique.</t>
-  </si>
-  <si>
-    <t>Semi Supervised Classification</t>
-  </si>
-  <si>
-    <t>Input :Text from the user reviews after applying StringtoWordVector Algorithm and some additional trimming</t>
-  </si>
-  <si>
-    <t>Naive Bayes</t>
-  </si>
-  <si>
-    <t>In the experiments Weka used for the text mining processing. In Weka Reviews were given as an input and StringToWordVector used for the transformation. Also additionla triiming was done by rremoving the numbers, symbols and two letters words. KEEL toolkit for the ML algorithms and cross validation used.</t>
-  </si>
-  <si>
-    <t>Online reviews of the 40 top paid and freeapps on appstores from top 10 different categories</t>
-  </si>
-  <si>
-    <t>No comparison of result is provided.</t>
-  </si>
-  <si>
-    <t>Relevant Reference[4].</t>
-  </si>
-  <si>
-    <t>Supervised Classification</t>
-  </si>
-  <si>
-    <t>Automatic Classifying Functional and Nonfunctional Requirements Using Supervised Machine Learning</t>
-  </si>
-  <si>
-    <t>Detection of FR and NFR also identification of types of NFRs *operational, performance, security and usability.</t>
-  </si>
-  <si>
-    <t>Input:NFR dataset i.e. 12 classes and 625 requirments</t>
-  </si>
-  <si>
-    <t>Support Vector Machine</t>
-  </si>
-  <si>
-    <t>Natural Langugae Toolkit NLTK and Standford Parser for Pre-Processing the data. For Machine learning SciKit used for builidng the classifier.</t>
-  </si>
-  <si>
-    <t>UserComments + NFR dataset</t>
-  </si>
-  <si>
-    <t>For solving the undersampling poblem of the data, they have used User Comment data set .This dataset contains performance and usability requirements and derived from the Amazon software reviews. Relevant Refernece [20]</t>
-  </si>
-  <si>
-    <t>A Little Bird Told ME: Mining Tweets for REquirements and Softwre Evolution</t>
-  </si>
-  <si>
-    <t>Detection of the Requirments from the tweets</t>
-  </si>
-  <si>
-    <t>Input : 68108 tweets i.e. collection of two month tweets of Spotify, dropbox and Slack softwares.Output : the datset was binary classified i.e. improvment request or other. Further improvment request were considered for the grouping and ranking processing.</t>
-  </si>
-  <si>
-    <t>Multi Naive Bayes</t>
-  </si>
-  <si>
-    <t>Training dataset was converted into vector space modle using TF-IDF. Weka software with 10-cross fold used for MNB implementation.</t>
-  </si>
-  <si>
-    <t>Tweets</t>
-  </si>
-  <si>
-    <t>Weka</t>
-  </si>
-  <si>
-    <t>Using Clustering to Improve the Structure of Natural Language Requirements Documents</t>
-  </si>
-  <si>
-    <t>Automatically identifying the parts of the document that lack requirements relatedness and sections independence may help improve the document structure.</t>
   </si>
   <si>
     <t>Input: set of requirements
@@ -165,12 +330,6 @@
     <t>By executing the algorithm with different similarity functions and different combinations of values for the parameters, different hidden struc- tures are generated. We call these structures hidden structure candidates. These structures represent possible partitioning of the document perceived by a reader who reads the document without having the original structure information. In- tuitively, the variation of the parameters allows the identification of possible variants in the interpretation of the document structure.</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Classification</t>
-  </si>
-  <si>
     <t>Probing for Requirements Knowledge 
 to Stimulate Architectural Thinking</t>
   </si>
@@ -180,10 +339,16 @@
 Significant Functional Requirements (ASFRs) and non ASFRs.</t>
   </si>
   <si>
+    <t>Classification</t>
+  </si>
+  <si>
     <t>Input :450 Functionla Req including 246 ASFR with total 10 categories.</t>
   </si>
   <si>
     <t>NAive Bayes, VSM</t>
+  </si>
+  <si>
+    <t>Weka</t>
   </si>
   <si>
     <t>SRS and Requirements statements</t>
@@ -205,6 +370,9 @@
     <t>(Manual) dimensionality reduction</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>This is a pre-study on what features should be considered for classifying online reviews as relevant for requirements engineering. No actual system was implemented yet, although the authors point that that should be the next step.</t>
   </si>
   <si>
@@ -220,9 +388,6 @@
     <t>In this paper a tool named as Visaul Naraator is proposed. The tool takes userstories as an input and as an output genrated the conceptual model. For generating the conceptual model they choose total 11 heuristic dervided from NLP. For the future work author mentioned to resolve inconsistencies , redundnciesbetween requirments.</t>
   </si>
   <si>
-    <t>What Works Better? A Study of Classifying Requirements</t>
-  </si>
-  <si>
     <t>1.classifying FR and NFR, 2.classify 10 subcategories of NFR</t>
   </si>
   <si>
@@ -244,9 +409,6 @@
     <t>In this Paper two mainly goals were target first is classifying the FR and NFR and second classification of NFR into categories. For the first problem, preprocessing before applying the ML is proposed. As a first step POS tagging, Entity tagging and temporal tagging used. POS tagging assign the part of speech to each word and each requirement. Entity tagging .After that feature co-occurrence and regular expression used increase the weight of influential words used in NFR. J.48 DT used for the classifying the FR and NFR. For achieving second goal i.e. categorization or classification of NFR Topic Modeling unsupervised algorithm LDA and BTM applied. For generation of the topic Clustering, k-means, Hybrid clustering and k-means also applied. In the last author implemented BNB for the same purpose. The result showed BNB worked better out of clustering, k-means, LDA, BTM.</t>
   </si>
   <si>
-    <t>Mining Associations Between Quality Concerns and Functional Requirements</t>
-  </si>
-  <si>
     <t>identification of quality concerns related to the specific functional components</t>
   </si>
   <si>
@@ -254,40 +416,34 @@
   </si>
   <si>
     <t>Positive Train Control, Electronic Health Records, and Medical Infusion Pumps domain documents.</t>
-  </si>
-  <si>
-    <t>RE Data Challenge: Requirements Identification with Word2Vec and TensorFlow</t>
-  </si>
-  <si>
-    <t>1.identification of security related req. 2. idnetification of FR and NFR from the NFR dataset</t>
-  </si>
-  <si>
-    <t>Short/single req statements with classification of the req as security related and FR and NFR with the additional inofrmationof the quality attributes</t>
-  </si>
-  <si>
-    <t>For training the dataset Multinomial Naive Bayes, For solving problems mainly CNN</t>
-  </si>
-  <si>
-    <t>TensorFlow, Sci-kit learner, word2vec</t>
-  </si>
-  <si>
-    <t>short requirments in CSV formats not sure because on the website it is given in this format</t>
-  </si>
-  <si>
-    <t>CNN classifier equipped with Word2Vec embeddings provided an F1-score lift of over 7% over baseline methods for the SecReq dataset and around for the NFR dataset 5.5%</t>
-  </si>
-  <si>
-    <t>SecReq1 dataset, Quality Attributes (NFR) dataset</t>
-  </si>
-  <si>
-    <t>Relevant Reference[4]. RE data chalange with task for identification of Req specially security related req.</t>
   </si>
   <si>
     <t>Holistic requirement model(HRM) is designed to support analysis by enabling an engineer to gain deeper understanding of existing system requirements, improve an existing set of system requirements, or simultaneously mine functional requirements and quality
 concerns from a domain repository. For the result evaluation vector space model(VSM) used but it showed not good results as compare to the proposed model HRM</t>
   </si>
   <si>
-    <t>Automatic Classification of Non-Functional Requirements from Augmented App User Reviews</t>
+    <t>1.identification of security related req. 2. idnetification of FR and NFR from the NFR dataset</t>
+  </si>
+  <si>
+    <t>Short/single req statements with classification of the req as security related and FR and NFR with the additional inofrmationof the quality attributes</t>
+  </si>
+  <si>
+    <t>For training the dataset Multinomial Naive Bayes, For solving problems mainly CNN</t>
+  </si>
+  <si>
+    <t>TensorFlow, Sci-kit learner, word2vec</t>
+  </si>
+  <si>
+    <t>short requirments in CSV formats not sure because on the website it is given in this format</t>
+  </si>
+  <si>
+    <t>CNN classifier equipped with Word2Vec embeddings provided an F1-score lift of over 7% over baseline methods for the SecReq dataset and around for the NFR dataset 5.5%</t>
+  </si>
+  <si>
+    <t>SecReq1 dataset, Quality Attributes (NFR) dataset</t>
+  </si>
+  <si>
+    <t>Relevant Reference[4]. RE data chalange with task for identification of Req specially security related req.</t>
   </si>
   <si>
     <t xml:space="preserve"> the NFRs from massive user reviews during software maintenance and evolution. And Automatic user reviews classification in FR and NFR</t>
@@ -306,19 +462,137 @@
   </si>
   <si>
     <t>In this paper  four classification techniques used BoW, TF-IDF, CHI2, and AUR-BoW (proposed in this work) with three machine learning algorithms Naive Bayes, J48, and Bagging to classify user reviews.the sentences are augmented by several most similar words to the user reviews in the training set This finding indicates that for user review sentences, it is effective to improve user reviews classification results by adding textual semantics to the sentencesREF:30.28.18.39.39.8</t>
+  </si>
+  <si>
+    <t>Mining Twitter Feeds for Software User
+Requirements</t>
+  </si>
+  <si>
+    <t>Classify the software related tweets and summarize them(extractive summary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000 randomly selected tweets from ten differnet software </t>
+  </si>
+  <si>
+    <t>implemented Naïve Bayes, SVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weka, Sentistrength </t>
+  </si>
+  <si>
+    <t>instance, qualitative analysis of our 4,000 tweets showed that
+around 50% of our data contained useful technical feedback, in
+comparison to only 19% in [4]. We were also able to achieve
+an average classification F1 of 72% using SVM, in comparison
+to an F1 of 48% achieved in [4]</t>
+  </si>
+  <si>
+    <t>Tweets dataset was labelled manualayDifferent techniques with VSM and NB e.g. stop word removing, sentimental,stemming , and Bagof words were implemented. It was shown from the results that these parameters did not improve to help the results of ML algo for classification of the tweets.          Relevant Links 12, 4, 15,13</t>
+  </si>
+  <si>
+    <t>4000 randomly selected tweets from ten differnet software  OutPUT: Classify tweets into Spam, Req, bug</t>
+  </si>
+  <si>
+    <t>P. R. Anish</t>
+  </si>
+  <si>
+    <t>[Context/Motivation:] The major role of a software architect in the software development life cycle is to design an architectural solution that satisfies the functional and non-functional requirements of the system to the fullest extent possible. However, the details they need to make informed architectural decisions are often missing from the software requirements specifications. Architects therefore either make assumptions or go back to the business analysts for clarifications or conduct additional stakeholder interviews. All of these result in potential project delays. [Question/Problem:] There is very little known about how architects gather this missing information that is crucial to architectural decision-making. Further, there is dearth of knowledge on how we can leverage the requirements analysis phase by empowering business analysts to gather architecturally significant information pertinent to a given requirement. [Principal ideas / Results:] Based on qualitative interview study with software architects from large organisations, this research will (a) investigate how architects cope with missing information in real-world large scale projects and (b) leverage the knowledge of experienced software architects and make it available to business analysts so that they are equipped to elicit a more complete set of requirements that feed sufficient information into the architecture design process. This research further explores the use of machine learning techniques to gauge the potential to introduce automation to the process of gathering the architecturally significant information missing in the software requirement specification.</t>
+  </si>
+  <si>
+    <t>10.1109/RE.2016.30</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/stamp/stamp.jsp?arnumber=7765559</t>
+  </si>
+  <si>
+    <t>Towards an Approach to Stimulate Architectural
+Thinking during Requirements Engineering Phase</t>
+  </si>
+  <si>
+    <t>Same as row 14.</t>
+  </si>
+  <si>
+    <t>,,,</t>
+  </si>
+  <si>
+    <t>The Generation and Evolution of Adaptation Rules in Requirements Driven Self-Adaptive Systems</t>
+  </si>
+  <si>
+    <t>For user Driven Software Evolution: Requirments Elicitation Derived from Mining Online Reviews</t>
+  </si>
+  <si>
+    <t>T1 19.04</t>
+  </si>
+  <si>
+    <t>Automatically Classifying Requirements from the App stores: A Preliminary Study</t>
+  </si>
+  <si>
+    <t>T1 19.05</t>
+  </si>
+  <si>
+    <t>Tracing RE link</t>
+  </si>
+  <si>
+    <t>T1 20., 19</t>
+  </si>
+  <si>
+    <t>propose the systematic approach for transforming the online reviews to evolutionary requirments.</t>
+  </si>
+  <si>
+    <t>clustering</t>
+  </si>
+  <si>
+    <t>Karplersky internet security 2011 from Amazon and mobile app of TuneIn Radio Pro V3.6 from the app store</t>
+  </si>
+  <si>
+    <t>This paper was from DR symposium and the prebious work that used ML and RE named and mentioned in database with "Probing for Requirements Knowledge 
+to Stimulate Architectural Thinking" is laready mentioned. Also, in this paer all the planned things and some of there output reseach paper has mentioned.</t>
+  </si>
+  <si>
+    <t>The input of the J-K menas and S-K means are set of the same number of clusters produced by the S-GN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The propose method classify the opinions </t>
+  </si>
+  <si>
+    <t>In this paper main goal was to tranform the online reviews in to the evolutionary requirments. For the first problem  automated text analysis author analyzed the characteristics of the reviews and then used SRPA for the automated identification of the opinion about common software features. For clustering the opinion expression network algorithm Grivan Newman used in the proposed methods S-GN. .The input of the J-K menas and S-K means are set of the same number of clusters produced by the S-GN. The GN algo produced the optimized number of the cluster considering the global network topology that reduce the cluster containing mixed categories.For the second problem of assisting the devolpers, an ecnomic impact to analyze the user satisfaction based on the feed back and determine the important changes for the requirments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -344,20 +618,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -636,391 +927,893 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.61328125" customWidth="1"/>
-    <col min="2" max="2" width="40.921875" customWidth="1"/>
-    <col min="3" max="3" width="39.3046875" customWidth="1"/>
-    <col min="4" max="4" width="43.3828125" customWidth="1"/>
-    <col min="5" max="5" width="58.4609375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.23046875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="52.15234375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.15234375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.84375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.23046875" customWidth="1"/>
-    <col min="11" max="11" width="36.69140625" customWidth="1"/>
+    <col min="1" max="1" width="40.9296875" customWidth="1"/>
+    <col min="2" max="2" width="97.73046875" customWidth="1"/>
+    <col min="5" max="5" width="35.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="D2" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2016</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G7" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="G11" r:id="rId6"/>
+    <hyperlink ref="G12" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="40.9296875" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.3984375" customWidth="1"/>
+    <col min="5" max="5" width="58.46484375" customWidth="1"/>
+    <col min="6" max="6" width="36.19921875" customWidth="1"/>
+    <col min="7" max="7" width="52.1328125" customWidth="1"/>
+    <col min="8" max="8" width="37.1328125" customWidth="1"/>
+    <col min="9" max="9" width="33.86328125" customWidth="1"/>
+    <col min="10" max="10" width="28.19921875" customWidth="1"/>
+    <col min="11" max="11" width="36.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="171" x14ac:dyDescent="0.45">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="174.9" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="58.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="43.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="174.9" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>82</v>
+      <c r="C12" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="189.45" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>91</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="171" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="114" x14ac:dyDescent="0.45">
+      <c r="B15" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Paper/Google_spreadsheet_Tahi_RE.xlsx
+++ b/Paper/Google_spreadsheet_Tahi_RE.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="172">
   <si>
     <t>Document Title</t>
   </si>
@@ -536,33 +536,44 @@
     <t>T1 20., 19</t>
   </si>
   <si>
-    <t>propose the systematic approach for transforming the online reviews to evolutionary requirments.</t>
-  </si>
-  <si>
-    <t>clustering</t>
-  </si>
-  <si>
-    <t>Karplersky internet security 2011 from Amazon and mobile app of TuneIn Radio Pro V3.6 from the app store</t>
-  </si>
-  <si>
     <t>This paper was from DR symposium and the prebious work that used ML and RE named and mentioned in database with "Probing for Requirements Knowledge 
 to Stimulate Architectural Thinking" is laready mentioned. Also, in this paer all the planned things and some of there output reseach paper has mentioned.</t>
   </si>
   <si>
-    <t>The input of the J-K menas and S-K means are set of the same number of clusters produced by the S-GN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The propose method classify the opinions </t>
-  </si>
-  <si>
-    <t>In this paper main goal was to tranform the online reviews in to the evolutionary requirments. For the first problem  automated text analysis author analyzed the characteristics of the reviews and then used SRPA for the automated identification of the opinion about common software features. For clustering the opinion expression network algorithm Grivan Newman used in the proposed methods S-GN. .The input of the J-K menas and S-K means are set of the same number of clusters produced by the S-GN. The GN algo produced the optimized number of the cluster considering the global network topology that reduce the cluster containing mixed categories.For the second problem of assisting the devolpers, an ecnomic impact to analyze the user satisfaction based on the feed back and determine the important changes for the requirments</t>
+    <t>Text Classification and Machine learning for the requirments analysis using blogs</t>
+  </si>
+  <si>
+    <t>Classification of text to find teh related requirments and recommendation system used topic modeling to idnetify the key stakeholder for which that requirment is important and allow for the analysis</t>
+  </si>
+  <si>
+    <t>Supervised classification</t>
+  </si>
+  <si>
+    <t>Text documents i.e. blogs</t>
+  </si>
+  <si>
+    <t>Skiweb Data i.e. wiki, blogs etc</t>
+  </si>
+  <si>
+    <t>In this paper an existing tool Skiweb data is discussed. This software is basically used in military to decide what action need to be taken on a command. This casestudy was mapped to requirment elicitation process from a large and diverse environment. it is a hybrid of the wiki and blogs.That allows users to post event and infos and other users can update and add commnet and info.People publish their blogs and in the crisis multiple people can work on it. The goal of adding learning capablilty is to help to find the additional infos that are related to the post. So author can get the access of all other doc, emails etc materials to add infos in the blog. There are two sides of this PAL blog: publishing and subscription. On publishing side ML used to classify the text and task learning. On subsription side differnt topic are predict related to the intrest of the user.In the requirements engineering domain, classifiers can group posts by
+issue and allow requirements engineers to see all the arguments for an issue grouped
+together. By seeing what falls out of the classifiers into an “other” bin, new issues can
+be identified. Classification of the text identify the specific related requirments and recommendation systems used topic modeling can identify the key stakeholders for which a requirement is important and allow the analysis to be focused on the needs of hese stakeholders. The stakeholders are served through allowing them to focus on 
+blog discussions relevant to their interests</t>
+  </si>
+  <si>
+    <t>We devise a method for creating an overview of the concepts in a conceptual
+model by creating clusters that contain semantically related concepts;
+– We propose a proof-of-concept tool for generating clusters and for zooming
+them; we evaluate its feasibility by applying it to user story sets from 4 realworld
+cases.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +605,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -622,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,6 +663,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -929,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1331,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="J18" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1349,7 +1369,7 @@
     <col min="8" max="8" width="37.1328125" customWidth="1"/>
     <col min="9" max="9" width="33.86328125" customWidth="1"/>
     <col min="10" max="10" width="28.19921875" customWidth="1"/>
-    <col min="11" max="11" width="36.6640625" customWidth="1"/>
+    <col min="11" max="11" width="63.46484375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
@@ -1383,7 +1403,7 @@
       <c r="J1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1434,11 +1454,11 @@
       <c r="I3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>79</v>
@@ -1465,7 +1485,7 @@
       <c r="J4" t="s">
         <v>85</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1494,7 +1514,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="114" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>156</v>
       </c>
@@ -1519,11 +1539,11 @@
       <c r="J6" t="s">
         <v>98</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="171" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>100</v>
@@ -1583,11 +1603,11 @@
       <c r="J8" t="s">
         <v>112</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>114</v>
@@ -1616,11 +1636,11 @@
       <c r="J9" t="s">
         <v>112</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="171" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>26</v>
@@ -1646,11 +1666,11 @@
       <c r="I10" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>20</v>
@@ -1701,11 +1721,11 @@
       <c r="J12" t="s">
         <v>135</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="171" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1765,7 +1785,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="114" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
         <v>154</v>
       </c>
@@ -1785,7 +1805,7 @@
         <v>155</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
@@ -1793,27 +1813,52 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="8" t="s">
+    <row r="17" spans="2:26" ht="294" x14ac:dyDescent="0.45">
+      <c r="B17" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="C17" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I17" s="8" t="s">
+      <c r="F17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>170</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+    </row>
+    <row r="18" spans="2:26" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="K18" s="8" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Paper/Google_spreadsheet_Tahi_RE.xlsx
+++ b/Paper/Google_spreadsheet_Tahi_RE.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$18</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="188">
   <si>
     <t>Document Title</t>
   </si>
@@ -308,26 +311,6 @@
   </si>
   <si>
     <t>Using Clustering to Improve the Structure of Natural Language Requirements Documents</t>
-  </si>
-  <si>
-    <t>Automatically identifying the parts of the document that lack requirements relatedness and sections independence may help improve the document structure.</t>
-  </si>
-  <si>
-    <t>Clustering</t>
-  </si>
-  <si>
-    <t>Input: set of requirements
-Output: Clustering of the requirements according to relatedness
-Features: terms ocurring in the requirements</t>
-  </si>
-  <si>
-    <t>S-HTC Clustering Algorithm (defined by the authors based on known distance - Jaccard similarity metric, Levenshtein distance, convex combination between σjac and σlev)</t>
-  </si>
-  <si>
-    <t>We evaluate the effectiveness of our proposed method on a publicly available requirements document of the railway domain, namely the UIC EIRENE Func- tional Requirements Specification version 7 [19], issued in 2006. The document comprises 583 requirements partitioned into 14 sections.</t>
-  </si>
-  <si>
-    <t>By executing the algorithm with different similarity functions and different combinations of values for the parameters, different hidden struc- tures are generated. We call these structures hidden structure candidates. These structures represent possible partitioning of the document perceived by a reader who reads the document without having the original structure information. In- tuitively, the variation of the parameters allows the identification of possible variants in the interpretation of the document structure.</t>
   </si>
   <si>
     <t>Probing for Requirements Knowledge 
@@ -512,9 +495,6 @@
     <t>Same as row 14.</t>
   </si>
   <si>
-    <t>,,,</t>
-  </si>
-  <si>
     <t>The Generation and Evolution of Adaptation Rules in Requirements Driven Self-Adaptive Systems</t>
   </si>
   <si>
@@ -527,13 +507,7 @@
     <t>Automatically Classifying Requirements from the App stores: A Preliminary Study</t>
   </si>
   <si>
-    <t>T1 19.05</t>
-  </si>
-  <si>
     <t>Tracing RE link</t>
-  </si>
-  <si>
-    <t>T1 20., 19</t>
   </si>
   <si>
     <t>This paper was from DR symposium and the prebious work that used ML and RE named and mentioned in database with "Probing for Requirements Knowledge 
@@ -562,11 +536,85 @@
 blog discussions relevant to their interests</t>
   </si>
   <si>
-    <t>We devise a method for creating an overview of the concepts in a conceptual
-model by creating clusters that contain semantically related concepts;
-– We propose a proof-of-concept tool for generating clusters and for zooming
-them; we evaluate its feasibility by applying it to user story sets from 4 realworld
-cases.</t>
+    <t>Visualizing User Story Requirements at Multiple
+Granularity Levels via Semantic Relatedness</t>
+  </si>
+  <si>
+    <t>automation for the visulaziation of req. improving the visualization of conceptual 
+models that are generated by the Visual Narrator from user stories</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>user stories</t>
+  </si>
+  <si>
+    <t>Ward’s minimum variance method</t>
+  </si>
+  <si>
+    <t>for grouping the concepts according to their similarity in SM</t>
+  </si>
+  <si>
+    <t>This paper was the extended study of the paper described in paper 15 Automated 
+extraction of conceptual models from user stories via NLP</t>
+  </si>
+  <si>
+    <t>Organisation of requirements</t>
+  </si>
+  <si>
+    <t>propose the systematic approach for transforming the online reviews to evolutionary requirments.</t>
+  </si>
+  <si>
+    <t>clustering</t>
+  </si>
+  <si>
+    <t>The input of the J-K menas and S-K means are set of the same number of clusters produced by the S-GN.</t>
+  </si>
+  <si>
+    <t>Karplersky internet security 2011 from Amazon and mobile app of TuneIn Radio Pro V3.6 from the app store</t>
+  </si>
+  <si>
+    <t>The propose method classify the opinions</t>
+  </si>
+  <si>
+    <t>In this paper main goal was to tranform the online reviews in to the evolutionary requirments. For the first problem automated text analysis author analyzed the characteristics of the reviews and then used SRPA for the automated identification of the opinion about common software features. For clustering the opinion expression network algorithm Grivan Newman used in the proposed methods S-GN. .The input of the J-K menas and S-K means are set of the same number of clusters produced by the S-GN. The GN algo produced the optimized number of the cluster considering the global network topology that reduce the cluster containing mixed categories.For the second problem of assisting the devolpers, an ecnomic impact to analyze the user satisfaction based on the feed back and determine the important changes for the requirments</t>
+  </si>
+  <si>
+    <t>Classification of requirements (only from external sources) Evolutionary Requirments</t>
+  </si>
+  <si>
+    <t>Automated Support to Capture Verbal Just-in-Time Requirments in Agile devolpment: A practioner View</t>
+  </si>
+  <si>
+    <t>Propose to elicit the req in Agile with help of text Mining tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the input is the recorded conversation of the stakeholder and devolper talk </t>
+  </si>
+  <si>
+    <t>Using poular Social network sites to supoort req elicitation, prioritization and negogiation</t>
+  </si>
+  <si>
+    <t>This study propose to elicit the req by making group on using social media such as fb. Where friends and friends of friends can comment on the post and negogiate. Like of the post prioritize the req.</t>
+  </si>
+  <si>
+    <t>It is initial study conducted in RE course and all the process was manuall. No Ml has been used.</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>It is an initial study for automated elicitiation of software req in agile devolpment. The proposed methodolgy will record the conversations and Dragon Naturally speaking toll will converst this audio to text. After getting this text applying text mining will give a list of words and loosely formated list of Req. No ML learning is used but can use as a future direction of application of ML.</t>
+  </si>
+  <si>
+    <t>Enhancing Domain Knowledge for Req Elicitation with web Mining</t>
+  </si>
+  <si>
+    <t>proposed a tool to to enhance the ontology of domain knowledge for req elicitation with webmining and NLP tech.It helped to mine the general concepts to ontology for improving and completeness and correctness of elicited req.</t>
+  </si>
+  <si>
+    <t>No ML has been used to solve the problem.</t>
   </si>
 </sst>
 </file>
@@ -639,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -665,6 +713,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -992,7 +1043,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1102,7 +1153,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -1130,7 +1181,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>31</v>
@@ -1158,7 +1209,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>36</v>
@@ -1273,19 +1324,19 @@
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D12" s="9">
         <v>2016</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1294,7 +1345,7 @@
         <v>53</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
@@ -1302,39 +1353,40 @@
         <v>53</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A18"/>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1"/>
     <hyperlink ref="G5" r:id="rId2"/>
@@ -1351,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J18" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1369,10 +1421,10 @@
     <col min="8" max="8" width="37.1328125" customWidth="1"/>
     <col min="9" max="9" width="33.86328125" customWidth="1"/>
     <col min="10" max="10" width="28.19921875" customWidth="1"/>
-    <col min="11" max="11" width="63.46484375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="99.06640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>54</v>
       </c>
@@ -1407,7 +1459,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>65</v>
       </c>
@@ -1428,7 +1480,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>70</v>
@@ -1458,7 +1510,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>79</v>
@@ -1489,7 +1541,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>87</v>
@@ -1514,333 +1566,349 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="114" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
-        <v>156</v>
-      </c>
+    <row r="6" spans="1:26" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="J7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:26" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:26" ht="114" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="I9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="171" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="K10" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:26" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
       <c r="K11" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>133</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:26" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>137</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>139</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="I13" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J13" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="K13" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="128.25" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="57" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>147</v>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>149</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="179.25" x14ac:dyDescent="0.45">
+      <c r="B16" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+    </row>
+    <row r="17" spans="2:26" ht="51.75" x14ac:dyDescent="0.45">
+      <c r="B17" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" ht="294" x14ac:dyDescent="0.45">
-      <c r="B17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -1856,9 +1924,143 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
     </row>
-    <row r="18" spans="2:26" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="K18" s="8" t="s">
+    <row r="18" spans="2:26" ht="141" x14ac:dyDescent="0.45">
+      <c r="B18" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>171</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+    </row>
+    <row r="19" spans="2:26" ht="57" x14ac:dyDescent="0.45">
+      <c r="B19" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" ht="64.5" x14ac:dyDescent="0.45">
+      <c r="B20" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" ht="64.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Paper/Google_spreadsheet_Tahi_RE.xlsx
+++ b/Paper/Google_spreadsheet_Tahi_RE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="230">
   <si>
     <t>Document Title</t>
   </si>
@@ -616,12 +616,190 @@
   <si>
     <t>No ML has been used to solve the problem.</t>
   </si>
+  <si>
+    <t>Research on User Requirment Elicitation Using text Assoistation</t>
+  </si>
+  <si>
+    <t>user requirment elicitation</t>
+  </si>
+  <si>
+    <t>input: user requirment collected from internt Output: limited or shortlisted user requirment for designing machine aided system</t>
+  </si>
+  <si>
+    <t>VSM, Text minining with extension in Grey assosiation</t>
+  </si>
+  <si>
+    <t>In this paper user requirmetns are taken in form of differnt document and resources from the interent. the propose system first apply data preprocessing as word segmentation and stop words remval. In the next step documents get converted into VSM model. After that improved gray assosiation rule used for correlation calculation between deature words and propoer nouns of machine industry. apllying some weighted calculation on proper noun matrix user requirments are obtaained.</t>
+  </si>
+  <si>
+    <t>Facing scalability issues in requirements prioritization with machine learning techniques</t>
+  </si>
+  <si>
+    <t>Towards automated requirements prioritization and triage</t>
+  </si>
+  <si>
+    <t>Mining Requirements Links</t>
+  </si>
+  <si>
+    <t>reduce the effort needed to establish and maintain traceability links</t>
+  </si>
+  <si>
+    <t>VSM,J.48 Decision tree</t>
+  </si>
+  <si>
+    <t>maximum of 95.7%
+simultaneous precision and recall, vs. 86.5% for VSM.</t>
+  </si>
+  <si>
+    <t>harnessed two sources of information in VSM model: (i) the decision tree generated by the
+J48 machine-learning algorithm, and (ii) the affinity measure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CM-1 project by the NASA Metrics Data Program. The
+dataset comprises 235 high-level SRS (software requirements specification) which are
+refined to 220 low-level SDS (software design specification) for the same DPUdata processing unit); 361 manually-verified links relate the two sets </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">user requirments from NASA dataset.                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one for the occurrence of t in a high-level requirement (named tH) and one for the similar occurrence in a low-level requirement (named tL), giving in total 3570 features</t>
+    </r>
+  </si>
+  <si>
+    <t>reduce the effort for software requirment prioritization (specifically AHP process state of the art)</t>
+  </si>
+  <si>
+    <t>input: A finite set of requirements Req = {r1,...,rn}.
+• The ranking criteria F = (f1,...,fm).
+• The initial user preferences represented by the function
+Φ0(ri, rj )
+• Related to the Φ we also define a density function D :
+Req × Req → R such that
+D(ri, rj ) = γ · max({0, Φ(ri, rj )}</t>
+  </si>
+  <si>
+    <t>Case based ranking with ada boost algorithm</t>
+  </si>
+  <si>
+    <t>Goals at risk? Machine Learning at support of Early Assesments</t>
+  </si>
+  <si>
+    <t>Trace by Classification: A machine learning approach to Generate trace links for frequently occuring software artifacts</t>
+  </si>
+  <si>
+    <t>input: priority elicitation of goals by the decision maker and Risk goal ranking function(predefined ranking criteria ordering the goal)        output: Final risk based goal rank</t>
+  </si>
+  <si>
+    <t>for risk decsion making a semi automated system is proposed.</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case based ranking </t>
+  </si>
+  <si>
+    <t>Related paper to "Facing scalability issues in requirements prioritization with machine learning techniques"</t>
+  </si>
+  <si>
+    <t>genrate tracelink for req and other software artifacts across different project</t>
+  </si>
+  <si>
+    <t>input: 1449 requirments written by masters students with 24 distinct NFR type, product level requirments in health care related product traced a total of 1891 requirments across ten  different project</t>
+  </si>
+  <si>
+    <t>VSM, probability score classification</t>
+  </si>
+  <si>
+    <t>Extended study of the paper "The detection and classification of non functional requirments tracability."</t>
+  </si>
+  <si>
+    <t>Automated Extraction of Non Functional Requirments in available Documentation</t>
+  </si>
+  <si>
+    <t>Extracting NFR and classifying NFRs into 14 categories</t>
+  </si>
+  <si>
+    <t>supervised Classification</t>
+  </si>
+  <si>
+    <t>input: sentences output:classify each sentence into one or mor NFR categories</t>
+  </si>
+  <si>
+    <t>K-NN classifier</t>
+  </si>
+  <si>
+    <t>11 (Electronic health record)EHRs documents</t>
+  </si>
+  <si>
+    <t>EHR domainA ,wide variety of open and closed source
+EHRs, various industry standards (HL7 5, CCHIT 6),governmental regulations, PROMISE NFR Data Set</t>
+  </si>
+  <si>
+    <t>Early estimation of NFRs for Embeded system using Design Metrics</t>
+  </si>
+  <si>
+    <t>helps to evaluate the impact of design choice with respect to NFR in embeded system</t>
+  </si>
+  <si>
+    <t>regression</t>
+  </si>
+  <si>
+    <t>input: set of design metrics</t>
+  </si>
+  <si>
+    <t>linear least square regression, Multivarient adaptive regresssion splines, support vector machine, regression tree</t>
+  </si>
+  <si>
+    <t>21 different implementation of banking system, 12 different implementation of voting system</t>
+  </si>
+  <si>
+    <t>in this paper knowledge is extracted from the previous projects that can help to make better design descision.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +837,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -687,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -715,6 +901,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1403,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2063,6 +2252,246 @@
         <v>187</v>
       </c>
     </row>
+    <row r="22" spans="2:26" ht="64.5" x14ac:dyDescent="0.45">
+      <c r="B22" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+    </row>
+    <row r="23" spans="2:26" ht="115.5" x14ac:dyDescent="0.45">
+      <c r="B23" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+    </row>
+    <row r="24" spans="2:26" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B24" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B25" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B26" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" ht="77.25" x14ac:dyDescent="0.45">
+      <c r="B27" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+    </row>
+    <row r="28" spans="2:26" ht="39" x14ac:dyDescent="0.45">
+      <c r="B28" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+    </row>
+    <row r="29" spans="2:26" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B29" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
